--- a/resultados/resultados_221125.xlsx
+++ b/resultados/resultados_221125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ufranca/Documents/Dropbox/other_projects/FIA-Ajepi/Mundial2022/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8320AC-3C3C-6B49-A9DE-F86B131F8838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDCE418-1F9F-EF4B-9887-E0D0FDDA7C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6840" yWindow="500" windowWidth="21960" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105:B120"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3088,11 +3088,17 @@
       </c>
       <c r="D104">
         <f>D87+E104</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104">
         <f>3*F104+G104</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -3107,11 +3113,17 @@
       </c>
       <c r="D105">
         <f t="shared" ref="D105:D120" si="10">D88+E105</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E105">
         <f t="shared" ref="E105:E120" si="11">3*F105+G105</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -3126,11 +3138,17 @@
       </c>
       <c r="D106">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E106">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -3145,11 +3163,17 @@
       </c>
       <c r="D107">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E107">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -3164,11 +3188,17 @@
       </c>
       <c r="D108">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E108">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -3183,11 +3213,17 @@
       </c>
       <c r="D109">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E109">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -3202,11 +3238,17 @@
       </c>
       <c r="D110">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E110">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3221,11 +3263,17 @@
       </c>
       <c r="D111">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E111">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -3240,14 +3288,20 @@
       </c>
       <c r="D112">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E112">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -3259,14 +3313,20 @@
       </c>
       <c r="D113">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -3284,8 +3344,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -3297,14 +3363,20 @@
       </c>
       <c r="D115">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E115">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -3316,14 +3388,20 @@
       </c>
       <c r="D116">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E116">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -3341,8 +3419,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -3354,14 +3438,20 @@
       </c>
       <c r="D118">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E118">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -3379,8 +3469,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -3392,11 +3488,17 @@
       </c>
       <c r="D120">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="7:7" x14ac:dyDescent="0.2">
